--- a/output/3_Regression/h19/h19table_mape.xlsx
+++ b/output/3_Regression/h19/h19table_mape.xlsx
@@ -435,13 +435,13 @@
         <v>7.740164735448812</v>
       </c>
       <c r="E2">
-        <v>0.3380316329158693</v>
+        <v>0.9328412200352171</v>
       </c>
       <c r="F2">
-        <v>0.44223611458169</v>
+        <v>1.698165286746292</v>
       </c>
       <c r="G2">
-        <v>0.7903534463071121</v>
+        <v>0.7824760896642482</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,13 +458,13 @@
         <v>4.475959340334258</v>
       </c>
       <c r="E3">
-        <v>0.1669612235782565</v>
+        <v>0.5478451121799687</v>
       </c>
       <c r="F3">
-        <v>0.2716448484372089</v>
+        <v>0.9670001588138336</v>
       </c>
       <c r="G3">
-        <v>0.4959571404040627</v>
+        <v>0.3285519843424317</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>3.255342061354607</v>
       </c>
       <c r="E4">
-        <v>0.1093365712251139</v>
+        <v>0.2949532567780643</v>
       </c>
       <c r="F4">
-        <v>0.2073899898497875</v>
+        <v>0.5890757598315991</v>
       </c>
       <c r="G4">
-        <v>0.4148284050682601</v>
+        <v>0.3756386228375375</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -504,13 +504,13 @@
         <v>2.573764441367669</v>
       </c>
       <c r="E5">
-        <v>0.07148005156345469</v>
+        <v>0.2023887696867908</v>
       </c>
       <c r="F5">
-        <v>0.1747162827920029</v>
+        <v>0.364179235377267</v>
       </c>
       <c r="G5">
-        <v>0.3886699314326846</v>
+        <v>0.6684885088623692</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -527,13 +527,13 @@
         <v>2.106855614478657</v>
       </c>
       <c r="E6">
-        <v>0.05837516911050894</v>
+        <v>0.1741459414126606</v>
       </c>
       <c r="F6">
-        <v>0.1527244832401538</v>
+        <v>0.290140542311581</v>
       </c>
       <c r="G6">
-        <v>0.3877405680913293</v>
+        <v>0.8514781362182309</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -550,13 +550,13 @@
         <v>1.735585369273905</v>
       </c>
       <c r="E7">
-        <v>0.05662613734747771</v>
+        <v>0.1651065532183356</v>
       </c>
       <c r="F7">
-        <v>0.1366991157371199</v>
+        <v>0.2719012920739856</v>
       </c>
       <c r="G7">
-        <v>0.3263757781333396</v>
+        <v>0.8795999416078818</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -573,13 +573,13 @@
         <v>1.402211967336299</v>
       </c>
       <c r="E8">
-        <v>0.0525103464577137</v>
+        <v>0.1700233663282519</v>
       </c>
       <c r="F8">
-        <v>0.1242247315508696</v>
+        <v>0.2758288253319641</v>
       </c>
       <c r="G8">
-        <v>0.3974541128556723</v>
+        <v>0.9467623199274007</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -596,13 +596,13 @@
         <v>1.145037462827489</v>
       </c>
       <c r="E9">
-        <v>0.05392105700245007</v>
+        <v>0.1756734803401682</v>
       </c>
       <c r="F9">
-        <v>0.1148652302377901</v>
+        <v>0.2893427364235381</v>
       </c>
       <c r="G9">
-        <v>0.4033546551271608</v>
+        <v>0.8742702024140325</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -619,13 +619,13 @@
         <v>1.059255910318486</v>
       </c>
       <c r="E10">
-        <v>0.05372986775329498</v>
+        <v>0.1888440863899888</v>
       </c>
       <c r="F10">
-        <v>0.1065791861681515</v>
+        <v>0.3063417367919338</v>
       </c>
       <c r="G10">
-        <v>0.3858661086931036</v>
+        <v>0.8828980658925977</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -642,13 +642,13 @@
         <v>1.095231025310942</v>
       </c>
       <c r="E11">
-        <v>0.05731718774058141</v>
+        <v>0.200138511832936</v>
       </c>
       <c r="F11">
-        <v>0.09978899850097467</v>
+        <v>0.3218649524182449</v>
       </c>
       <c r="G11">
-        <v>0.3436257044580215</v>
+        <v>0.8616426642814509</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -665,13 +665,13 @@
         <v>1.220923751984449</v>
       </c>
       <c r="E12">
-        <v>0.05832837551626772</v>
+        <v>0.2126656974927768</v>
       </c>
       <c r="F12">
-        <v>0.09425775622134827</v>
+        <v>0.3394751823086626</v>
       </c>
       <c r="G12">
-        <v>0.3051638017702021</v>
+        <v>0.836219079765617</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -688,13 +688,13 @@
         <v>1.41332580876482</v>
       </c>
       <c r="E13">
-        <v>0.06042471094164652</v>
+        <v>0.2271292162883323</v>
       </c>
       <c r="F13">
-        <v>0.08966640206086893</v>
+        <v>0.3577404928527166</v>
       </c>
       <c r="G13">
-        <v>0.2691944036977852</v>
+        <v>0.8177570632457851</v>
       </c>
     </row>
   </sheetData>
